--- a/microservices/order_service/data/food.xlsx
+++ b/microservices/order_service/data/food.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Desktop\FOODY\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Desktop\FOODY_PROJECT\microservices\order_service\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
   <si>
     <t>food</t>
   </si>
@@ -88,6 +88,9 @@
   </si>
   <si>
     <t>picture</t>
+  </si>
+  <si>
+    <t>bánh cá phô mai sô cô la(trắng)</t>
   </si>
 </sst>
 </file>
@@ -1808,12 +1811,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="1" max="1" width="17.5" customWidth="1"/>
+    <col min="2" max="2" width="10.75" customWidth="1"/>
     <col min="3" max="3" width="18.5" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1886,7 +1891,7 @@
     </row>
     <row r="9" spans="1:3" ht="111" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="B9">
         <v>10000</v>
